--- a/Bauteileigenschaften.xlsx
+++ b/Bauteileigenschaften.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDE9C77-87DA-4357-A8A0-70B6F1BDBA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F899787-8EDB-49C4-9438-4BCDBFC6967E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" xr2:uid="{253EF88C-1AF3-407C-B8EF-23C66C3FB4E5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="633">
   <si>
     <t>Chassis_V4.0.asm</t>
   </si>
@@ -1927,6 +1927,12 @@
   </si>
   <si>
     <t>NK176</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>030</t>
   </si>
 </sst>
 </file>
@@ -2296,8 +2302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5350B9-6CCC-4CD2-880D-A51CD21721F9}">
   <dimension ref="A1:N197"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K182" sqref="K182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3112,7 +3118,9 @@
       <c r="I29" t="s">
         <v>436</v>
       </c>
-      <c r="K29" s="2"/>
+      <c r="K29" s="2" t="s">
+        <v>631</v>
+      </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
@@ -3141,7 +3149,9 @@
       <c r="I30" t="s">
         <v>436</v>
       </c>
-      <c r="K30" s="2"/>
+      <c r="K30" s="2" t="s">
+        <v>632</v>
+      </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
@@ -4792,7 +4802,7 @@
         <v>235</v>
       </c>
       <c r="B86" t="s">
-        <v>169</v>
+        <v>235</v>
       </c>
       <c r="C86" t="s">
         <v>170</v>

--- a/Bauteileigenschaften.xlsx
+++ b/Bauteileigenschaften.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F899787-8EDB-49C4-9438-4BCDBFC6967E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDE9C77-87DA-4357-A8A0-70B6F1BDBA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" xr2:uid="{253EF88C-1AF3-407C-B8EF-23C66C3FB4E5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="631">
   <si>
     <t>Chassis_V4.0.asm</t>
   </si>
@@ -1927,12 +1927,6 @@
   </si>
   <si>
     <t>NK176</t>
-  </si>
-  <si>
-    <t>029</t>
-  </si>
-  <si>
-    <t>030</t>
   </si>
 </sst>
 </file>
@@ -2302,8 +2296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5350B9-6CCC-4CD2-880D-A51CD21721F9}">
   <dimension ref="A1:N197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K182" sqref="K182"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3118,9 +3112,7 @@
       <c r="I29" t="s">
         <v>436</v>
       </c>
-      <c r="K29" s="2" t="s">
-        <v>631</v>
-      </c>
+      <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
@@ -3149,9 +3141,7 @@
       <c r="I30" t="s">
         <v>436</v>
       </c>
-      <c r="K30" s="2" t="s">
-        <v>632</v>
-      </c>
+      <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
@@ -4802,7 +4792,7 @@
         <v>235</v>
       </c>
       <c r="B86" t="s">
-        <v>235</v>
+        <v>169</v>
       </c>
       <c r="C86" t="s">
         <v>170</v>

--- a/Bauteileigenschaften.xlsx
+++ b/Bauteileigenschaften.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDE9C77-87DA-4357-A8A0-70B6F1BDBA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BF80B5-73AF-4AD1-A4B8-1D6625EA9B3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" xr2:uid="{253EF88C-1AF3-407C-B8EF-23C66C3FB4E5}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="46290" windowHeight="25530" xr2:uid="{253EF88C-1AF3-407C-B8EF-23C66C3FB4E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="633">
   <si>
     <t>Chassis_V4.0.asm</t>
   </si>
@@ -1927,6 +1918,12 @@
   </si>
   <si>
     <t>NK176</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>029</t>
   </si>
 </sst>
 </file>
@@ -2296,20 +2293,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5350B9-6CCC-4CD2-880D-A51CD21721F9}">
   <dimension ref="A1:N197"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="74.5546875" customWidth="1"/>
-    <col min="2" max="2" width="43.88671875" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="9" max="9" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="74.5703125" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>432</v>
       </c>
@@ -2347,7 +2344,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2366,7 +2363,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2385,7 +2382,7 @@
       </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2416,7 +2413,7 @@
       </c>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2435,7 +2432,7 @@
       </c>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2466,7 +2463,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2497,7 +2494,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -2528,7 +2525,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2559,7 +2556,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -2590,7 +2587,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -2621,7 +2618,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -2652,7 +2649,7 @@
       </c>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2682,7 +2679,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -2713,7 +2710,7 @@
       </c>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -2744,7 +2741,7 @@
       </c>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -2775,7 +2772,7 @@
       </c>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -2806,7 +2803,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -2837,7 +2834,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>68</v>
       </c>
@@ -2868,7 +2865,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -2899,7 +2896,7 @@
       </c>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -2918,7 +2915,7 @@
       </c>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>74</v>
       </c>
@@ -2937,7 +2934,7 @@
       </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -2956,7 +2953,7 @@
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>76</v>
       </c>
@@ -2975,7 +2972,7 @@
       </c>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -2994,7 +2991,7 @@
       </c>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -3025,7 +3022,7 @@
       </c>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>80</v>
       </c>
@@ -3056,7 +3053,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -3087,7 +3084,7 @@
       </c>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -3112,11 +3109,13 @@
       <c r="I29" t="s">
         <v>436</v>
       </c>
-      <c r="K29" s="2"/>
+      <c r="K29" s="2" t="s">
+        <v>631</v>
+      </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>90</v>
       </c>
@@ -3141,11 +3140,13 @@
       <c r="I30" t="s">
         <v>436</v>
       </c>
-      <c r="K30" s="2"/>
+      <c r="K30" s="2" t="s">
+        <v>632</v>
+      </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>94</v>
       </c>
@@ -3176,7 +3177,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>97</v>
       </c>
@@ -3207,7 +3208,7 @@
       </c>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>100</v>
       </c>
@@ -3238,7 +3239,7 @@
       </c>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>102</v>
       </c>
@@ -3269,7 +3270,7 @@
       </c>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>104</v>
       </c>
@@ -3300,7 +3301,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>106</v>
       </c>
@@ -3331,7 +3332,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>108</v>
       </c>
@@ -3362,7 +3363,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>110</v>
       </c>
@@ -3393,7 +3394,7 @@
       </c>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>112</v>
       </c>
@@ -3424,7 +3425,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>114</v>
       </c>
@@ -3455,7 +3456,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>116</v>
       </c>
@@ -3486,7 +3487,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>118</v>
       </c>
@@ -3517,7 +3518,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>120</v>
       </c>
@@ -3548,7 +3549,7 @@
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>124</v>
       </c>
@@ -3579,7 +3580,7 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>128</v>
       </c>
@@ -3610,7 +3611,7 @@
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>132</v>
       </c>
@@ -3641,7 +3642,7 @@
       </c>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>135</v>
       </c>
@@ -3672,7 +3673,7 @@
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>139</v>
       </c>
@@ -3703,7 +3704,7 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>143</v>
       </c>
@@ -3734,7 +3735,7 @@
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>147</v>
       </c>
@@ -3765,7 +3766,7 @@
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>152</v>
       </c>
@@ -3784,7 +3785,7 @@
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>153</v>
       </c>
@@ -3803,7 +3804,7 @@
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>154</v>
       </c>
@@ -3834,7 +3835,7 @@
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>156</v>
       </c>
@@ -3853,7 +3854,7 @@
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>157</v>
       </c>
@@ -3872,7 +3873,7 @@
       </c>
       <c r="M55" s="2"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>158</v>
       </c>
@@ -3903,7 +3904,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>160</v>
       </c>
@@ -3934,7 +3935,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>162</v>
       </c>
@@ -3965,7 +3966,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>164</v>
       </c>
@@ -3996,7 +3997,7 @@
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>168</v>
       </c>
@@ -4027,7 +4028,7 @@
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>174</v>
       </c>
@@ -4058,7 +4059,7 @@
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>175</v>
       </c>
@@ -4089,7 +4090,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>177</v>
       </c>
@@ -4120,7 +4121,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>179</v>
       </c>
@@ -4151,7 +4152,7 @@
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>183</v>
       </c>
@@ -4182,7 +4183,7 @@
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>187</v>
       </c>
@@ -4213,7 +4214,7 @@
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>191</v>
       </c>
@@ -4244,7 +4245,7 @@
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>193</v>
       </c>
@@ -4275,7 +4276,7 @@
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>197</v>
       </c>
@@ -4306,7 +4307,7 @@
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>201</v>
       </c>
@@ -4337,7 +4338,7 @@
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>205</v>
       </c>
@@ -4368,7 +4369,7 @@
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>209</v>
       </c>
@@ -4399,7 +4400,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>211</v>
       </c>
@@ -4430,7 +4431,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>213</v>
       </c>
@@ -4461,7 +4462,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>215</v>
       </c>
@@ -4492,7 +4493,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>217</v>
       </c>
@@ -4523,7 +4524,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>220</v>
       </c>
@@ -4554,7 +4555,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>222</v>
       </c>
@@ -4585,7 +4586,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>160</v>
       </c>
@@ -4616,7 +4617,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>224</v>
       </c>
@@ -4647,7 +4648,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>226</v>
       </c>
@@ -4678,7 +4679,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>228</v>
       </c>
@@ -4694,7 +4695,7 @@
       </c>
       <c r="M82" s="2"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>229</v>
       </c>
@@ -4725,7 +4726,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>231</v>
       </c>
@@ -4756,7 +4757,7 @@
       </c>
       <c r="M84" s="2"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>233</v>
       </c>
@@ -4787,7 +4788,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>235</v>
       </c>
@@ -4818,7 +4819,7 @@
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>237</v>
       </c>
@@ -4849,7 +4850,7 @@
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>239</v>
       </c>
@@ -4880,7 +4881,7 @@
       </c>
       <c r="M88" s="2"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>244</v>
       </c>
@@ -4911,7 +4912,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>246</v>
       </c>
@@ -4927,7 +4928,7 @@
       </c>
       <c r="M90" s="2"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>247</v>
       </c>
@@ -4958,7 +4959,7 @@
       </c>
       <c r="M91" s="2"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>251</v>
       </c>
@@ -4989,7 +4990,7 @@
       </c>
       <c r="M92" s="2"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>254</v>
       </c>
@@ -5008,7 +5009,7 @@
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>255</v>
       </c>
@@ -5039,7 +5040,7 @@
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>259</v>
       </c>
@@ -5070,7 +5071,7 @@
       </c>
       <c r="M95" s="2"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>263</v>
       </c>
@@ -5098,7 +5099,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>265</v>
       </c>
@@ -5129,7 +5130,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>267</v>
       </c>
@@ -5160,7 +5161,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>269</v>
       </c>
@@ -5176,7 +5177,7 @@
       </c>
       <c r="M99" s="2"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>229</v>
       </c>
@@ -5207,7 +5208,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>233</v>
       </c>
@@ -5238,7 +5239,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>270</v>
       </c>
@@ -5254,7 +5255,7 @@
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>271</v>
       </c>
@@ -5285,7 +5286,7 @@
       </c>
       <c r="M103" s="2"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>273</v>
       </c>
@@ -5316,7 +5317,7 @@
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>276</v>
       </c>
@@ -5347,7 +5348,7 @@
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>278</v>
       </c>
@@ -5366,7 +5367,7 @@
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>279</v>
       </c>
@@ -5397,7 +5398,7 @@
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>282</v>
       </c>
@@ -5416,7 +5417,7 @@
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>283</v>
       </c>
@@ -5447,7 +5448,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>285</v>
       </c>
@@ -5478,7 +5479,7 @@
       </c>
       <c r="M110" s="2"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>288</v>
       </c>
@@ -5509,7 +5510,7 @@
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>291</v>
       </c>
@@ -5540,7 +5541,7 @@
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>293</v>
       </c>
@@ -5571,7 +5572,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>295</v>
       </c>
@@ -5602,7 +5603,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>297</v>
       </c>
@@ -5633,7 +5634,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>298</v>
       </c>
@@ -5652,7 +5653,7 @@
       </c>
       <c r="M116" s="2"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>299</v>
       </c>
@@ -5683,7 +5684,7 @@
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>301</v>
       </c>
@@ -5714,7 +5715,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>303</v>
       </c>
@@ -5745,7 +5746,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>297</v>
       </c>
@@ -5776,7 +5777,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>305</v>
       </c>
@@ -5807,7 +5808,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>307</v>
       </c>
@@ -5838,7 +5839,7 @@
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>309</v>
       </c>
@@ -5857,7 +5858,7 @@
       </c>
       <c r="M123" s="2"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>310</v>
       </c>
@@ -5888,7 +5889,7 @@
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>312</v>
       </c>
@@ -5904,7 +5905,7 @@
       </c>
       <c r="M125" s="2"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>313</v>
       </c>
@@ -5920,7 +5921,7 @@
       </c>
       <c r="M126" s="2"/>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>314</v>
       </c>
@@ -5948,7 +5949,7 @@
       </c>
       <c r="M127" s="2"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>317</v>
       </c>
@@ -5979,7 +5980,7 @@
       </c>
       <c r="M128" s="2"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>319</v>
       </c>
@@ -6010,7 +6011,7 @@
       </c>
       <c r="M129" s="2"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>322</v>
       </c>
@@ -6041,7 +6042,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>324</v>
       </c>
@@ -6072,7 +6073,7 @@
       </c>
       <c r="M131" s="2"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>326</v>
       </c>
@@ -6091,7 +6092,7 @@
       </c>
       <c r="M132" s="2"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>327</v>
       </c>
@@ -6122,7 +6123,7 @@
       </c>
       <c r="M133" s="2"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>329</v>
       </c>
@@ -6153,7 +6154,7 @@
       </c>
       <c r="M134" s="2"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>333</v>
       </c>
@@ -6184,7 +6185,7 @@
       </c>
       <c r="M135" s="2"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>336</v>
       </c>
@@ -6215,7 +6216,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>338</v>
       </c>
@@ -6246,7 +6247,7 @@
       </c>
       <c r="M137" s="2"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>340</v>
       </c>
@@ -6265,7 +6266,7 @@
       </c>
       <c r="M138" s="2"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>341</v>
       </c>
@@ -6296,7 +6297,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>343</v>
       </c>
@@ -6315,7 +6316,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>344</v>
       </c>
@@ -6346,7 +6347,7 @@
       </c>
       <c r="M141" s="2"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>347</v>
       </c>
@@ -6377,7 +6378,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>348</v>
       </c>
@@ -6408,7 +6409,7 @@
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>352</v>
       </c>
@@ -6439,7 +6440,7 @@
       </c>
       <c r="M144" s="2"/>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>355</v>
       </c>
@@ -6470,7 +6471,7 @@
       </c>
       <c r="M145" s="2"/>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>358</v>
       </c>
@@ -6501,7 +6502,7 @@
       </c>
       <c r="M146" s="2"/>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>362</v>
       </c>
@@ -6532,7 +6533,7 @@
       </c>
       <c r="M147" s="2"/>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>365</v>
       </c>
@@ -6563,7 +6564,7 @@
       </c>
       <c r="M148" s="2"/>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>368</v>
       </c>
@@ -6594,7 +6595,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>305</v>
       </c>
@@ -6625,7 +6626,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>370</v>
       </c>
@@ -6656,7 +6657,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>372</v>
       </c>
@@ -6687,7 +6688,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>374</v>
       </c>
@@ -6706,7 +6707,7 @@
       </c>
       <c r="M153" s="2"/>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>375</v>
       </c>
@@ -6725,7 +6726,7 @@
       </c>
       <c r="M154" s="2"/>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>376</v>
       </c>
@@ -6744,7 +6745,7 @@
       </c>
       <c r="M155" s="2"/>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>377</v>
       </c>
@@ -6775,7 +6776,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>379</v>
       </c>
@@ -6806,7 +6807,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>381</v>
       </c>
@@ -6837,7 +6838,7 @@
       </c>
       <c r="M158" s="2"/>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>384</v>
       </c>
@@ -6868,7 +6869,7 @@
       </c>
       <c r="M159" s="2"/>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>387</v>
       </c>
@@ -6899,7 +6900,7 @@
       </c>
       <c r="M160" s="2"/>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>389</v>
       </c>
@@ -6918,7 +6919,7 @@
       </c>
       <c r="M161" s="2"/>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>71</v>
       </c>
@@ -6949,7 +6950,7 @@
       <c r="L162" s="2"/>
       <c r="M162" s="2"/>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>391</v>
       </c>
@@ -6980,7 +6981,7 @@
       </c>
       <c r="M163" s="2"/>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>393</v>
       </c>
@@ -7011,7 +7012,7 @@
       <c r="L164" s="2"/>
       <c r="M164" s="2"/>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>76</v>
       </c>
@@ -7042,7 +7043,7 @@
       </c>
       <c r="M165" s="2"/>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>398</v>
       </c>
@@ -7073,7 +7074,7 @@
       <c r="L166" s="2"/>
       <c r="M166" s="2"/>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>400</v>
       </c>
@@ -7104,7 +7105,7 @@
       <c r="L167" s="2"/>
       <c r="M167" s="2"/>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>402</v>
       </c>
@@ -7135,7 +7136,7 @@
       <c r="L168" s="2"/>
       <c r="M168" s="2"/>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>404</v>
       </c>
@@ -7166,7 +7167,7 @@
       <c r="L169" s="2"/>
       <c r="M169" s="2"/>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>406</v>
       </c>
@@ -7197,7 +7198,7 @@
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>408</v>
       </c>
@@ -7228,7 +7229,7 @@
       <c r="L171" s="2"/>
       <c r="M171" s="2"/>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>209</v>
       </c>
@@ -7259,7 +7260,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>412</v>
       </c>
@@ -7290,7 +7291,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>414</v>
       </c>
@@ -7321,7 +7322,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>416</v>
       </c>
@@ -7352,7 +7353,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>418</v>
       </c>
@@ -7383,7 +7384,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>224</v>
       </c>
@@ -7414,7 +7415,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>419</v>
       </c>
@@ -7445,7 +7446,7 @@
       <c r="L178" s="2"/>
       <c r="M178" s="2"/>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>422</v>
       </c>
@@ -7476,7 +7477,7 @@
       <c r="L179" s="2"/>
       <c r="M179" s="2"/>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>424</v>
       </c>
@@ -7507,7 +7508,7 @@
       <c r="L180" s="2"/>
       <c r="M180" s="2"/>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>426</v>
       </c>
@@ -7538,7 +7539,7 @@
       <c r="L181" s="2"/>
       <c r="M181" s="2"/>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>428</v>
       </c>
@@ -7569,7 +7570,7 @@
       <c r="L182" s="2"/>
       <c r="M182" s="2"/>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>430</v>
       </c>
@@ -7600,59 +7601,59 @@
       <c r="L183" s="2"/>
       <c r="M183" s="2"/>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L184" s="2"/>
       <c r="M184" s="2"/>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L185" s="2"/>
       <c r="M185" s="2"/>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L186" s="2"/>
       <c r="M186" s="2"/>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L187" s="2"/>
       <c r="M187" s="2"/>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L188" s="2"/>
       <c r="M188" s="2"/>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L189" s="2"/>
       <c r="M189" s="2"/>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L190" s="2"/>
       <c r="M190" s="2"/>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L191" s="2"/>
       <c r="M191" s="2"/>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L192" s="2"/>
       <c r="M192" s="2"/>
     </row>
-    <row r="193" spans="12:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L193" s="2"/>
       <c r="M193" s="2"/>
     </row>
-    <row r="194" spans="12:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L194" s="2"/>
       <c r="M194" s="2"/>
     </row>
-    <row r="195" spans="12:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L195" s="2"/>
       <c r="M195" s="2"/>
     </row>
-    <row r="196" spans="12:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L196" s="2"/>
       <c r="M196" s="2"/>
     </row>
-    <row r="197" spans="12:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L197" s="2"/>
       <c r="M197" s="2"/>
     </row>

--- a/Bauteileigenschaften.xlsx
+++ b/Bauteileigenschaften.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BF80B5-73AF-4AD1-A4B8-1D6625EA9B3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AE7014-1C54-42AA-BCA0-57A8FBFB0425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="46290" windowHeight="25530" xr2:uid="{253EF88C-1AF3-407C-B8EF-23C66C3FB4E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" xr2:uid="{253EF88C-1AF3-407C-B8EF-23C66C3FB4E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="631">
   <si>
     <t>Chassis_V4.0.asm</t>
   </si>
@@ -711,9 +711,6 @@
     <t>125,07 mm^2</t>
   </si>
   <si>
-    <t>DC-DC CC CV Buck Converter Step-down Power Supply Module 7-40V to 1-35V 12A.asm</t>
-  </si>
-  <si>
     <t>Screw_DIN_912_M2.5x6_v16.00.par</t>
   </si>
   <si>
@@ -1353,15 +1350,6 @@
     <t>Teilweise</t>
   </si>
   <si>
-    <t>Kauflink:</t>
-  </si>
-  <si>
-    <t>Dokumentennummer:</t>
-  </si>
-  <si>
-    <t>Quelle:</t>
-  </si>
-  <si>
     <t>Flacheninhalt:</t>
   </si>
   <si>
@@ -1924,6 +1912,12 @@
   </si>
   <si>
     <t>029</t>
+  </si>
+  <si>
+    <t>Buck Converter</t>
+  </si>
+  <si>
+    <t>Dok. Nr.</t>
   </si>
 </sst>
 </file>
@@ -2291,60 +2285,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5350B9-6CCC-4CD2-880D-A51CD21721F9}">
-  <dimension ref="A1:N197"/>
+  <dimension ref="A1:L197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="74.5703125" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="1" max="1" width="48.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>432</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>433</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>443</v>
-      </c>
+        <v>630</v>
+      </c>
+      <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2355,15 +2349,15 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>434</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>451</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2374,15 +2368,15 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>435</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" t="s">
-        <v>510</v>
-      </c>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" t="s">
+        <v>506</v>
+      </c>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2405,15 +2399,15 @@
         <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>435</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2424,15 +2418,15 @@
         <v>0.99</v>
       </c>
       <c r="H5" t="s">
-        <v>435</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2455,15 +2449,15 @@
         <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>434</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>452</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2486,15 +2480,15 @@
         <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>434</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>453</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -2517,15 +2511,15 @@
         <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>434</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>454</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2548,15 +2542,15 @@
         <v>29</v>
       </c>
       <c r="I9" t="s">
-        <v>434</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>455</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -2579,15 +2573,15 @@
         <v>33</v>
       </c>
       <c r="I10" t="s">
-        <v>434</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>456</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -2610,15 +2604,15 @@
         <v>37</v>
       </c>
       <c r="I11" t="s">
-        <v>434</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>457</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -2641,15 +2635,15 @@
         <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>435</v>
-      </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2672,14 +2666,14 @@
         <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>435</v>
-      </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -2702,15 +2696,15 @@
         <v>50</v>
       </c>
       <c r="H14" t="s">
-        <v>435</v>
-      </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -2733,15 +2727,15 @@
         <v>56</v>
       </c>
       <c r="H15" t="s">
-        <v>435</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -2764,15 +2758,15 @@
         <v>59</v>
       </c>
       <c r="H16" t="s">
-        <v>435</v>
-      </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -2795,15 +2789,15 @@
         <v>65</v>
       </c>
       <c r="H17" t="s">
-        <v>435</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L17" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -2826,15 +2820,15 @@
         <v>67</v>
       </c>
       <c r="H18" t="s">
-        <v>435</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L18" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>68</v>
       </c>
@@ -2857,15 +2851,15 @@
         <v>70</v>
       </c>
       <c r="H19" t="s">
-        <v>435</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L19" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -2888,15 +2882,15 @@
         <v>72</v>
       </c>
       <c r="I20" t="s">
-        <v>437</v>
-      </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -2907,15 +2901,15 @@
         <v>0.99</v>
       </c>
       <c r="H21" t="s">
-        <v>435</v>
-      </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>74</v>
       </c>
@@ -2926,15 +2920,15 @@
         <v>0.99</v>
       </c>
       <c r="H22" t="s">
-        <v>435</v>
-      </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -2945,15 +2939,15 @@
         <v>0.99</v>
       </c>
       <c r="H23" t="s">
-        <v>435</v>
-      </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>76</v>
       </c>
@@ -2964,15 +2958,15 @@
         <v>0.99</v>
       </c>
       <c r="H24" t="s">
-        <v>435</v>
-      </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -2983,15 +2977,15 @@
         <v>0.99</v>
       </c>
       <c r="H25" t="s">
-        <v>435</v>
-      </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="M25" s="2"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -3014,15 +3008,15 @@
         <v>79</v>
       </c>
       <c r="H26" t="s">
-        <v>435</v>
-      </c>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="M26" s="2"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>80</v>
       </c>
@@ -3045,15 +3039,15 @@
         <v>81</v>
       </c>
       <c r="H27" t="s">
-        <v>435</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L27" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -3076,15 +3070,15 @@
         <v>83</v>
       </c>
       <c r="H28" t="s">
-        <v>435</v>
-      </c>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -3107,15 +3101,15 @@
         <v>89</v>
       </c>
       <c r="I29" t="s">
-        <v>436</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>631</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="K29" s="2"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>90</v>
       </c>
@@ -3138,15 +3132,15 @@
         <v>93</v>
       </c>
       <c r="I30" t="s">
-        <v>436</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>632</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="K30" s="2"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>94</v>
       </c>
@@ -3169,15 +3163,15 @@
         <v>96</v>
       </c>
       <c r="H31" t="s">
-        <v>435</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L31" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>97</v>
       </c>
@@ -3200,15 +3194,15 @@
         <v>99</v>
       </c>
       <c r="I32" t="s">
-        <v>437</v>
-      </c>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="M32" s="2"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>100</v>
       </c>
@@ -3231,15 +3225,15 @@
         <v>101</v>
       </c>
       <c r="I33" t="s">
-        <v>437</v>
-      </c>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="M33" s="2"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>102</v>
       </c>
@@ -3262,15 +3256,15 @@
         <v>103</v>
       </c>
       <c r="I34" t="s">
-        <v>437</v>
-      </c>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="M34" s="2"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>104</v>
       </c>
@@ -3293,15 +3287,15 @@
         <v>105</v>
       </c>
       <c r="H35" t="s">
-        <v>435</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L35" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>106</v>
       </c>
@@ -3324,15 +3318,15 @@
         <v>107</v>
       </c>
       <c r="H36" t="s">
-        <v>435</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L36" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>108</v>
       </c>
@@ -3355,15 +3349,15 @@
         <v>109</v>
       </c>
       <c r="H37" t="s">
-        <v>435</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L37" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>110</v>
       </c>
@@ -3386,15 +3380,15 @@
         <v>111</v>
       </c>
       <c r="H38" t="s">
-        <v>435</v>
-      </c>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>112</v>
       </c>
@@ -3417,15 +3411,15 @@
         <v>113</v>
       </c>
       <c r="H39" t="s">
-        <v>435</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="J39" s="2"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L39" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>114</v>
       </c>
@@ -3448,15 +3442,15 @@
         <v>115</v>
       </c>
       <c r="H40" t="s">
-        <v>435</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L40" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>116</v>
       </c>
@@ -3479,15 +3473,15 @@
         <v>117</v>
       </c>
       <c r="H41" t="s">
-        <v>435</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L41" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>118</v>
       </c>
@@ -3510,15 +3504,15 @@
         <v>119</v>
       </c>
       <c r="H42" t="s">
-        <v>435</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="J42" s="2"/>
       <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L42" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>120</v>
       </c>
@@ -3541,15 +3535,15 @@
         <v>123</v>
       </c>
       <c r="I43" t="s">
-        <v>436</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>458</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="K43" s="2"/>
       <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>124</v>
       </c>
@@ -3572,15 +3566,15 @@
         <v>127</v>
       </c>
       <c r="I44" t="s">
-        <v>436</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>459</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="K44" s="2"/>
       <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>128</v>
       </c>
@@ -3603,15 +3597,15 @@
         <v>131</v>
       </c>
       <c r="I45" t="s">
-        <v>436</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>460</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="K45" s="2"/>
       <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>132</v>
       </c>
@@ -3634,15 +3628,15 @@
         <v>134</v>
       </c>
       <c r="H46" t="s">
-        <v>435</v>
-      </c>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="M46" s="2"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>135</v>
       </c>
@@ -3665,15 +3659,15 @@
         <v>138</v>
       </c>
       <c r="I47" t="s">
-        <v>436</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>461</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="K47" s="2"/>
       <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>139</v>
       </c>
@@ -3696,15 +3690,15 @@
         <v>142</v>
       </c>
       <c r="I48" t="s">
-        <v>436</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>462</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="K48" s="2"/>
       <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>143</v>
       </c>
@@ -3727,15 +3721,15 @@
         <v>146</v>
       </c>
       <c r="I49" t="s">
-        <v>436</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>463</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="K49" s="2"/>
       <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>147</v>
       </c>
@@ -3758,15 +3752,15 @@
         <v>151</v>
       </c>
       <c r="I50" t="s">
-        <v>438</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>464</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="K50" s="2"/>
       <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>152</v>
       </c>
@@ -3777,15 +3771,15 @@
         <v>0.99</v>
       </c>
       <c r="H51" t="s">
-        <v>435</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>465</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="K51" s="2"/>
       <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>153</v>
       </c>
@@ -3796,15 +3790,15 @@
         <v>0.99</v>
       </c>
       <c r="I52" t="s">
-        <v>436</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>466</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="K52" s="2"/>
       <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>154</v>
       </c>
@@ -3827,15 +3821,15 @@
         <v>155</v>
       </c>
       <c r="I53" t="s">
-        <v>434</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>467</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="K53" s="2"/>
       <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>156</v>
       </c>
@@ -3846,15 +3840,15 @@
         <v>0.99</v>
       </c>
       <c r="I54" t="s">
-        <v>438</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>468</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="K54" s="2"/>
       <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>157</v>
       </c>
@@ -3865,15 +3859,15 @@
         <v>0.99</v>
       </c>
       <c r="H55" t="s">
-        <v>435</v>
-      </c>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="M55" s="2"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="L55" s="2"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>158</v>
       </c>
@@ -3896,15 +3890,15 @@
         <v>159</v>
       </c>
       <c r="H56" t="s">
-        <v>435</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="J56" s="2"/>
       <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L56" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>160</v>
       </c>
@@ -3927,15 +3921,15 @@
         <v>161</v>
       </c>
       <c r="H57" t="s">
-        <v>435</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="J57" s="2"/>
       <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L57" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>162</v>
       </c>
@@ -3958,15 +3952,15 @@
         <v>163</v>
       </c>
       <c r="H58" t="s">
-        <v>435</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="J58" s="2"/>
       <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L58" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>164</v>
       </c>
@@ -3989,15 +3983,15 @@
         <v>167</v>
       </c>
       <c r="I59" t="s">
-        <v>439</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>469</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="K59" s="2"/>
       <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>168</v>
       </c>
@@ -4020,15 +4014,15 @@
         <v>173</v>
       </c>
       <c r="I60" t="s">
-        <v>436</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>470</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="K60" s="2"/>
       <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>174</v>
       </c>
@@ -4051,15 +4045,15 @@
         <v>173</v>
       </c>
       <c r="I61" t="s">
-        <v>436</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>471</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="K61" s="2"/>
       <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>175</v>
       </c>
@@ -4082,15 +4076,15 @@
         <v>176</v>
       </c>
       <c r="H62" t="s">
-        <v>435</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="J62" s="2"/>
       <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L62" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>177</v>
       </c>
@@ -4113,15 +4107,15 @@
         <v>178</v>
       </c>
       <c r="H63" t="s">
-        <v>435</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="J63" s="2"/>
       <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L63" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>179</v>
       </c>
@@ -4144,15 +4138,15 @@
         <v>182</v>
       </c>
       <c r="I64" t="s">
-        <v>434</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>472</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="K64" s="2"/>
       <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>183</v>
       </c>
@@ -4175,15 +4169,15 @@
         <v>186</v>
       </c>
       <c r="I65" t="s">
-        <v>434</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>473</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="K65" s="2"/>
       <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>187</v>
       </c>
@@ -4206,15 +4200,15 @@
         <v>190</v>
       </c>
       <c r="I66" t="s">
-        <v>434</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>474</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="K66" s="2"/>
       <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>191</v>
       </c>
@@ -4237,15 +4231,15 @@
         <v>192</v>
       </c>
       <c r="I67" t="s">
-        <v>436</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>475</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="K67" s="2"/>
       <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>193</v>
       </c>
@@ -4268,15 +4262,15 @@
         <v>196</v>
       </c>
       <c r="I68" t="s">
-        <v>436</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>476</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="K68" s="2"/>
       <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>197</v>
       </c>
@@ -4299,15 +4293,15 @@
         <v>200</v>
       </c>
       <c r="I69" t="s">
-        <v>434</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>477</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="K69" s="2"/>
       <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>201</v>
       </c>
@@ -4330,15 +4324,15 @@
         <v>204</v>
       </c>
       <c r="I70" t="s">
-        <v>434</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>478</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="K70" s="2"/>
       <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>205</v>
       </c>
@@ -4361,15 +4355,15 @@
         <v>208</v>
       </c>
       <c r="I71" t="s">
-        <v>436</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>479</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="K71" s="2"/>
       <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>209</v>
       </c>
@@ -4392,15 +4386,15 @@
         <v>210</v>
       </c>
       <c r="H72" t="s">
-        <v>435</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="J72" s="2"/>
       <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L72" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>211</v>
       </c>
@@ -4423,15 +4417,15 @@
         <v>212</v>
       </c>
       <c r="H73" t="s">
-        <v>435</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="J73" s="2"/>
       <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L73" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>213</v>
       </c>
@@ -4454,15 +4448,15 @@
         <v>214</v>
       </c>
       <c r="H74" t="s">
-        <v>435</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="J74" s="2"/>
       <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L74" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>215</v>
       </c>
@@ -4485,15 +4479,15 @@
         <v>216</v>
       </c>
       <c r="H75" t="s">
-        <v>435</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="J75" s="2"/>
       <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L75" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>217</v>
       </c>
@@ -4516,15 +4510,15 @@
         <v>219</v>
       </c>
       <c r="H76" t="s">
-        <v>435</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="J76" s="2"/>
       <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L76" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>220</v>
       </c>
@@ -4547,15 +4541,15 @@
         <v>221</v>
       </c>
       <c r="H77" t="s">
-        <v>435</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="J77" s="2"/>
       <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L77" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>222</v>
       </c>
@@ -4578,15 +4572,15 @@
         <v>223</v>
       </c>
       <c r="H78" t="s">
-        <v>435</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="J78" s="2"/>
       <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L78" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>160</v>
       </c>
@@ -4609,15 +4603,15 @@
         <v>161</v>
       </c>
       <c r="H79" t="s">
-        <v>435</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="J79" s="2"/>
       <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L79" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>224</v>
       </c>
@@ -4640,15 +4634,15 @@
         <v>225</v>
       </c>
       <c r="H80" t="s">
-        <v>435</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="J80" s="2"/>
       <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L80" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>226</v>
       </c>
@@ -4671,33 +4665,33 @@
         <v>227</v>
       </c>
       <c r="H81" t="s">
-        <v>435</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="J81" s="2"/>
       <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L81" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>629</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>2</v>
+      </c>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="L82" s="2"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>228</v>
-      </c>
-      <c r="E82" t="s">
-        <v>1</v>
-      </c>
-      <c r="F82" t="s">
-        <v>2</v>
-      </c>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="M82" s="2"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>229</v>
       </c>
       <c r="B83" t="s">
         <v>61</v>
@@ -4715,20 +4709,20 @@
         <v>2</v>
       </c>
       <c r="G83" t="s">
+        <v>229</v>
+      </c>
+      <c r="H83" t="s">
+        <v>434</v>
+      </c>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>230</v>
-      </c>
-      <c r="H83" t="s">
-        <v>435</v>
-      </c>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-      <c r="M83" s="2" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>231</v>
       </c>
       <c r="B84" t="s">
         <v>13</v>
@@ -4746,20 +4740,20 @@
         <v>2</v>
       </c>
       <c r="G84" t="s">
+        <v>231</v>
+      </c>
+      <c r="H84" t="s">
+        <v>434</v>
+      </c>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="L84" s="2"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>232</v>
-      </c>
-      <c r="H84" t="s">
-        <v>435</v>
-      </c>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="M84" s="2"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>233</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
@@ -4777,20 +4771,20 @@
         <v>2</v>
       </c>
       <c r="G85" t="s">
+        <v>233</v>
+      </c>
+      <c r="H85" t="s">
+        <v>434</v>
+      </c>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>234</v>
-      </c>
-      <c r="H85" t="s">
-        <v>435</v>
-      </c>
-      <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
-      <c r="M85" s="2" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>235</v>
       </c>
       <c r="B86" t="s">
         <v>169</v>
@@ -4808,20 +4802,20 @@
         <v>2</v>
       </c>
       <c r="G86" t="s">
+        <v>235</v>
+      </c>
+      <c r="H86" t="s">
+        <v>434</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>236</v>
-      </c>
-      <c r="H86" t="s">
-        <v>435</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="L86" s="2"/>
-      <c r="M86" s="2"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>237</v>
       </c>
       <c r="B87" t="s">
         <v>169</v>
@@ -4839,51 +4833,51 @@
         <v>2</v>
       </c>
       <c r="G87" t="s">
+        <v>237</v>
+      </c>
+      <c r="H87" t="s">
+        <v>434</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>238</v>
-      </c>
-      <c r="H87" t="s">
-        <v>435</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>239</v>
       </c>
       <c r="B88" t="s">
         <v>11</v>
       </c>
       <c r="C88" t="s">
+        <v>239</v>
+      </c>
+      <c r="D88">
+        <v>0.99</v>
+      </c>
+      <c r="E88" t="s">
         <v>240</v>
       </c>
-      <c r="D88">
-        <v>0.99</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>241</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>242</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
+        <v>434</v>
+      </c>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="L88" s="2"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>243</v>
-      </c>
-      <c r="H88" t="s">
-        <v>435</v>
-      </c>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="M88" s="2"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>244</v>
       </c>
       <c r="B89" t="s">
         <v>61</v>
@@ -4901,117 +4895,117 @@
         <v>2</v>
       </c>
       <c r="G89" t="s">
+        <v>244</v>
+      </c>
+      <c r="H89" t="s">
+        <v>434</v>
+      </c>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>245</v>
       </c>
-      <c r="H89" t="s">
-        <v>435</v>
-      </c>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-      <c r="M89" s="2" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="E90" t="s">
+        <v>1</v>
+      </c>
+      <c r="F90" t="s">
+        <v>2</v>
+      </c>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="L90" s="2"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>246</v>
-      </c>
-      <c r="E90" t="s">
-        <v>1</v>
-      </c>
-      <c r="F90" t="s">
-        <v>2</v>
-      </c>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="M90" s="2"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>247</v>
       </c>
       <c r="B91" t="s">
         <v>11</v>
       </c>
       <c r="C91" t="s">
+        <v>247</v>
+      </c>
+      <c r="D91">
+        <v>0.99</v>
+      </c>
+      <c r="E91" t="s">
         <v>248</v>
       </c>
-      <c r="D91">
-        <v>0.99</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>249</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
+        <v>242</v>
+      </c>
+      <c r="H91" t="s">
+        <v>434</v>
+      </c>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="L91" s="2"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>250</v>
-      </c>
-      <c r="G91" t="s">
-        <v>243</v>
-      </c>
-      <c r="H91" t="s">
-        <v>435</v>
-      </c>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="M91" s="2"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>251</v>
       </c>
       <c r="B92" t="s">
         <v>11</v>
       </c>
       <c r="C92" t="s">
+        <v>251</v>
+      </c>
+      <c r="D92">
+        <v>0.99</v>
+      </c>
+      <c r="E92" t="s">
         <v>252</v>
-      </c>
-      <c r="D92">
-        <v>0.99</v>
-      </c>
-      <c r="E92" t="s">
-        <v>253</v>
       </c>
       <c r="F92" t="s">
         <v>130</v>
       </c>
       <c r="G92" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H92" t="s">
-        <v>435</v>
-      </c>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="M92" s="2"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="L92" s="2"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>253</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1</v>
+      </c>
+      <c r="F93" t="s">
+        <v>2</v>
+      </c>
+      <c r="I93" t="s">
+        <v>439</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>254</v>
-      </c>
-      <c r="E93" t="s">
-        <v>1</v>
-      </c>
-      <c r="F93" t="s">
-        <v>2</v>
-      </c>
-      <c r="I93" t="s">
-        <v>440</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="L93" s="2"/>
-      <c r="M93" s="2"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>255</v>
       </c>
       <c r="B94" t="s">
         <v>13</v>
@@ -5023,32 +5017,32 @@
         <v>0.99</v>
       </c>
       <c r="E94" t="s">
+        <v>255</v>
+      </c>
+      <c r="F94" t="s">
         <v>256</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>257</v>
       </c>
-      <c r="G94" t="s">
+      <c r="I94" t="s">
+        <v>439</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>258</v>
       </c>
-      <c r="I94" t="s">
-        <v>440</v>
-      </c>
-      <c r="K94" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="B95" t="s">
         <v>259</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>260</v>
-      </c>
-      <c r="C95" t="s">
-        <v>261</v>
       </c>
       <c r="D95">
         <v>0.99</v>
@@ -5060,20 +5054,20 @@
         <v>64</v>
       </c>
       <c r="G95" t="s">
+        <v>261</v>
+      </c>
+      <c r="H95" t="s">
+        <v>434</v>
+      </c>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="L95" s="2"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>262</v>
-      </c>
-      <c r="H95" t="s">
-        <v>435</v>
-      </c>
-      <c r="K95" s="2"/>
-      <c r="L95" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="M95" s="2"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>263</v>
       </c>
       <c r="B96" t="s">
         <v>61</v>
@@ -5091,17 +5085,17 @@
         <v>2</v>
       </c>
       <c r="G96" t="s">
+        <v>263</v>
+      </c>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>264</v>
-      </c>
-      <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
-      <c r="M96" s="2" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>265</v>
       </c>
       <c r="B97" t="s">
         <v>61</v>
@@ -5119,20 +5113,20 @@
         <v>2</v>
       </c>
       <c r="G97" t="s">
+        <v>265</v>
+      </c>
+      <c r="H97" t="s">
+        <v>434</v>
+      </c>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>266</v>
-      </c>
-      <c r="H97" t="s">
-        <v>435</v>
-      </c>
-      <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
-      <c r="M97" s="2" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>267</v>
       </c>
       <c r="B98" t="s">
         <v>61</v>
@@ -5150,36 +5144,36 @@
         <v>2</v>
       </c>
       <c r="G98" t="s">
+        <v>267</v>
+      </c>
+      <c r="H98" t="s">
+        <v>434</v>
+      </c>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>268</v>
       </c>
-      <c r="H98" t="s">
-        <v>435</v>
-      </c>
-      <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
-      <c r="M98" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>269</v>
-      </c>
       <c r="E99" t="s">
         <v>1</v>
       </c>
       <c r="F99" t="s">
         <v>2</v>
       </c>
-      <c r="K99" s="2"/>
-      <c r="L99" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="M99" s="2"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J99" s="2"/>
+      <c r="K99" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="L99" s="2"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B100" t="s">
         <v>61</v>
@@ -5197,20 +5191,20 @@
         <v>2</v>
       </c>
       <c r="G100" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H100" t="s">
-        <v>435</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="J100" s="2"/>
       <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
-      <c r="M100" s="2" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L100" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B101" t="s">
         <v>5</v>
@@ -5228,36 +5222,36 @@
         <v>2</v>
       </c>
       <c r="G101" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H101" t="s">
-        <v>435</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="J101" s="2"/>
       <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L101" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
+        <v>269</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1</v>
+      </c>
+      <c r="F102" t="s">
+        <v>2</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>270</v>
-      </c>
-      <c r="E102" t="s">
-        <v>1</v>
-      </c>
-      <c r="F102" t="s">
-        <v>2</v>
-      </c>
-      <c r="K102" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="L102" s="2"/>
-      <c r="M102" s="2"/>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>271</v>
       </c>
       <c r="B103" t="s">
         <v>13</v>
@@ -5275,23 +5269,23 @@
         <v>2</v>
       </c>
       <c r="G103" t="s">
+        <v>271</v>
+      </c>
+      <c r="H103" t="s">
+        <v>434</v>
+      </c>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="L103" s="2"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>272</v>
       </c>
-      <c r="H103" t="s">
-        <v>435</v>
-      </c>
-      <c r="K103" s="2"/>
-      <c r="L103" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="M103" s="2"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="B104" t="s">
         <v>273</v>
-      </c>
-      <c r="B104" t="s">
-        <v>274</v>
       </c>
       <c r="C104" t="s">
         <v>53</v>
@@ -5306,20 +5300,20 @@
         <v>64</v>
       </c>
       <c r="G104" t="s">
+        <v>274</v>
+      </c>
+      <c r="I104" t="s">
+        <v>433</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>275</v>
-      </c>
-      <c r="I104" t="s">
-        <v>434</v>
-      </c>
-      <c r="K104" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>276</v>
       </c>
       <c r="B105" t="s">
         <v>169</v>
@@ -5337,39 +5331,39 @@
         <v>2</v>
       </c>
       <c r="G105" t="s">
+        <v>276</v>
+      </c>
+      <c r="I105" t="s">
+        <v>435</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>277</v>
       </c>
-      <c r="I105" t="s">
-        <v>436</v>
-      </c>
-      <c r="K105" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="L105" s="2"/>
-      <c r="M105" s="2"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="E106" t="s">
+        <v>1</v>
+      </c>
+      <c r="F106" t="s">
+        <v>2</v>
+      </c>
+      <c r="I106" t="s">
+        <v>433</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>278</v>
-      </c>
-      <c r="E106" t="s">
-        <v>1</v>
-      </c>
-      <c r="F106" t="s">
-        <v>2</v>
-      </c>
-      <c r="I106" t="s">
-        <v>434</v>
-      </c>
-      <c r="K106" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="L106" s="2"/>
-      <c r="M106" s="2"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>279</v>
       </c>
       <c r="B107" t="s">
         <v>169</v>
@@ -5384,23 +5378,23 @@
         <v>98</v>
       </c>
       <c r="F107" t="s">
+        <v>279</v>
+      </c>
+      <c r="G107" t="s">
         <v>280</v>
       </c>
-      <c r="G107" t="s">
+      <c r="I107" t="s">
+        <v>433</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>281</v>
-      </c>
-      <c r="I107" t="s">
-        <v>434</v>
-      </c>
-      <c r="K107" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="L107" s="2"/>
-      <c r="M107" s="2"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>282</v>
       </c>
       <c r="B108" t="s">
         <v>11</v>
@@ -5409,17 +5403,17 @@
         <v>0.99</v>
       </c>
       <c r="I108" t="s">
-        <v>434</v>
-      </c>
-      <c r="K108" s="2" t="s">
-        <v>489</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="K108" s="2"/>
       <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B109" t="s">
         <v>61</v>
@@ -5437,23 +5431,23 @@
         <v>2</v>
       </c>
       <c r="G109" t="s">
+        <v>283</v>
+      </c>
+      <c r="H109" t="s">
+        <v>434</v>
+      </c>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>284</v>
       </c>
-      <c r="H109" t="s">
-        <v>435</v>
-      </c>
-      <c r="K109" s="2"/>
-      <c r="L109" s="2"/>
-      <c r="M109" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>285</v>
-      </c>
       <c r="B110" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C110" t="s">
         <v>53</v>
@@ -5462,26 +5456,26 @@
         <v>0.99</v>
       </c>
       <c r="E110" t="s">
+        <v>285</v>
+      </c>
+      <c r="F110" t="s">
+        <v>256</v>
+      </c>
+      <c r="G110" t="s">
         <v>286</v>
       </c>
-      <c r="F110" t="s">
-        <v>257</v>
-      </c>
-      <c r="G110" t="s">
+      <c r="H110" t="s">
+        <v>434</v>
+      </c>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="L110" s="2"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>287</v>
-      </c>
-      <c r="H110" t="s">
-        <v>435</v>
-      </c>
-      <c r="K110" s="2"/>
-      <c r="L110" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="M110" s="2"/>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>288</v>
       </c>
       <c r="B111" t="s">
         <v>169</v>
@@ -5496,23 +5490,23 @@
         <v>121</v>
       </c>
       <c r="F111" t="s">
+        <v>288</v>
+      </c>
+      <c r="G111" t="s">
         <v>289</v>
       </c>
-      <c r="G111" t="s">
+      <c r="I111" t="s">
+        <v>433</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
         <v>290</v>
-      </c>
-      <c r="I111" t="s">
-        <v>434</v>
-      </c>
-      <c r="K111" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="L111" s="2"/>
-      <c r="M111" s="2"/>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>291</v>
       </c>
       <c r="B112" t="s">
         <v>169</v>
@@ -5530,20 +5524,20 @@
         <v>46</v>
       </c>
       <c r="G112" t="s">
+        <v>291</v>
+      </c>
+      <c r="I112" t="s">
+        <v>433</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>292</v>
-      </c>
-      <c r="I112" t="s">
-        <v>434</v>
-      </c>
-      <c r="K112" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="L112" s="2"/>
-      <c r="M112" s="2"/>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>293</v>
       </c>
       <c r="B113" t="s">
         <v>61</v>
@@ -5561,20 +5555,20 @@
         <v>2</v>
       </c>
       <c r="G113" t="s">
+        <v>293</v>
+      </c>
+      <c r="H113" t="s">
+        <v>434</v>
+      </c>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>294</v>
-      </c>
-      <c r="H113" t="s">
-        <v>435</v>
-      </c>
-      <c r="K113" s="2"/>
-      <c r="L113" s="2"/>
-      <c r="M113" s="2" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>295</v>
       </c>
       <c r="B114" t="s">
         <v>61</v>
@@ -5592,20 +5586,20 @@
         <v>2</v>
       </c>
       <c r="G114" t="s">
+        <v>295</v>
+      </c>
+      <c r="H114" t="s">
+        <v>434</v>
+      </c>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>296</v>
-      </c>
-      <c r="H114" t="s">
-        <v>435</v>
-      </c>
-      <c r="K114" s="2"/>
-      <c r="L114" s="2"/>
-      <c r="M114" s="2" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>297</v>
       </c>
       <c r="B115" t="s">
         <v>61</v>
@@ -5626,17 +5620,17 @@
         <v>227</v>
       </c>
       <c r="H115" t="s">
-        <v>435</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="J115" s="2"/>
       <c r="K115" s="2"/>
-      <c r="L115" s="2"/>
-      <c r="M115" s="2" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L115" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B116" t="s">
         <v>11</v>
@@ -5645,17 +5639,17 @@
         <v>0.99</v>
       </c>
       <c r="H116" t="s">
-        <v>435</v>
-      </c>
-      <c r="K116" s="2"/>
-      <c r="L116" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="M116" s="2"/>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="L116" s="2"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B117" t="s">
         <v>169</v>
@@ -5673,20 +5667,20 @@
         <v>64</v>
       </c>
       <c r="G117" t="s">
+        <v>299</v>
+      </c>
+      <c r="I117" t="s">
+        <v>435</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>300</v>
-      </c>
-      <c r="I117" t="s">
-        <v>436</v>
-      </c>
-      <c r="K117" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="L117" s="2"/>
-      <c r="M117" s="2"/>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>301</v>
       </c>
       <c r="B118" t="s">
         <v>61</v>
@@ -5704,20 +5698,20 @@
         <v>2</v>
       </c>
       <c r="G118" t="s">
+        <v>301</v>
+      </c>
+      <c r="H118" t="s">
+        <v>434</v>
+      </c>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
         <v>302</v>
-      </c>
-      <c r="H118" t="s">
-        <v>435</v>
-      </c>
-      <c r="K118" s="2"/>
-      <c r="L118" s="2"/>
-      <c r="M118" s="2" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>303</v>
       </c>
       <c r="B119" t="s">
         <v>61</v>
@@ -5735,20 +5729,20 @@
         <v>2</v>
       </c>
       <c r="G119" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H119" t="s">
-        <v>435</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="J119" s="2"/>
       <c r="K119" s="2"/>
-      <c r="L119" s="2"/>
-      <c r="M119" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L119" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B120" t="s">
         <v>61</v>
@@ -5769,17 +5763,17 @@
         <v>227</v>
       </c>
       <c r="H120" t="s">
-        <v>435</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="J120" s="2"/>
       <c r="K120" s="2"/>
-      <c r="L120" s="2"/>
-      <c r="M120" s="2" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L120" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B121" t="s">
         <v>61</v>
@@ -5797,20 +5791,20 @@
         <v>2</v>
       </c>
       <c r="G121" t="s">
+        <v>305</v>
+      </c>
+      <c r="H121" t="s">
+        <v>434</v>
+      </c>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+      <c r="L121" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
         <v>306</v>
-      </c>
-      <c r="H121" t="s">
-        <v>435</v>
-      </c>
-      <c r="K121" s="2"/>
-      <c r="L121" s="2"/>
-      <c r="M121" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>307</v>
       </c>
       <c r="B122" t="s">
         <v>85</v>
@@ -5828,20 +5822,20 @@
         <v>64</v>
       </c>
       <c r="G122" t="s">
+        <v>307</v>
+      </c>
+      <c r="I122" t="s">
+        <v>435</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
         <v>308</v>
-      </c>
-      <c r="I122" t="s">
-        <v>436</v>
-      </c>
-      <c r="K122" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="L122" s="2"/>
-      <c r="M122" s="2"/>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>309</v>
       </c>
       <c r="B123" t="s">
         <v>11</v>
@@ -5850,17 +5844,17 @@
         <v>0.99</v>
       </c>
       <c r="H123" t="s">
-        <v>435</v>
-      </c>
-      <c r="K123" s="2"/>
-      <c r="L123" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="M123" s="2"/>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="L123" s="2"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B124" t="s">
         <v>169</v>
@@ -5875,23 +5869,23 @@
         <v>125</v>
       </c>
       <c r="F124" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G124" t="s">
+        <v>310</v>
+      </c>
+      <c r="I124" t="s">
+        <v>435</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="K124" s="2"/>
+      <c r="L124" s="2"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
         <v>311</v>
-      </c>
-      <c r="I124" t="s">
-        <v>436</v>
-      </c>
-      <c r="K124" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="L124" s="2"/>
-      <c r="M124" s="2"/>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>312</v>
       </c>
       <c r="B125" t="s">
         <v>11</v>
@@ -5899,15 +5893,15 @@
       <c r="D125">
         <v>0.99</v>
       </c>
-      <c r="K125" s="2"/>
-      <c r="L125" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="M125" s="2"/>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J125" s="2"/>
+      <c r="K125" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="L125" s="2"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B126" t="s">
         <v>11</v>
@@ -5915,15 +5909,15 @@
       <c r="D126">
         <v>0.99</v>
       </c>
-      <c r="K126" s="2"/>
-      <c r="L126" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="M126" s="2"/>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J126" s="2"/>
+      <c r="K126" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="L126" s="2"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B127" t="s">
         <v>169</v>
@@ -5935,23 +5929,23 @@
         <v>0.99</v>
       </c>
       <c r="E127" t="s">
+        <v>314</v>
+      </c>
+      <c r="F127" t="s">
+        <v>288</v>
+      </c>
+      <c r="G127" t="s">
         <v>315</v>
       </c>
-      <c r="F127" t="s">
-        <v>289</v>
-      </c>
-      <c r="G127" t="s">
+      <c r="J127" s="2"/>
+      <c r="K127" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="L127" s="2"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>316</v>
-      </c>
-      <c r="K127" s="2"/>
-      <c r="L127" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="M127" s="2"/>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>317</v>
       </c>
       <c r="B128" t="s">
         <v>13</v>
@@ -5969,20 +5963,20 @@
         <v>2</v>
       </c>
       <c r="G128" t="s">
+        <v>317</v>
+      </c>
+      <c r="H128" t="s">
+        <v>434</v>
+      </c>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="L128" s="2"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>318</v>
-      </c>
-      <c r="H128" t="s">
-        <v>435</v>
-      </c>
-      <c r="K128" s="2"/>
-      <c r="L128" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="M128" s="2"/>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>319</v>
       </c>
       <c r="B129" t="s">
         <v>39</v>
@@ -5994,26 +5988,26 @@
         <v>0.99</v>
       </c>
       <c r="E129" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F129" t="s">
         <v>55</v>
       </c>
       <c r="G129" t="s">
+        <v>320</v>
+      </c>
+      <c r="H129" t="s">
+        <v>434</v>
+      </c>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="L129" s="2"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>321</v>
-      </c>
-      <c r="H129" t="s">
-        <v>435</v>
-      </c>
-      <c r="K129" s="2"/>
-      <c r="L129" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="M129" s="2"/>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>322</v>
       </c>
       <c r="B130" t="s">
         <v>61</v>
@@ -6031,20 +6025,20 @@
         <v>64</v>
       </c>
       <c r="G130" t="s">
+        <v>322</v>
+      </c>
+      <c r="H130" t="s">
+        <v>434</v>
+      </c>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>323</v>
-      </c>
-      <c r="H130" t="s">
-        <v>435</v>
-      </c>
-      <c r="K130" s="2"/>
-      <c r="L130" s="2"/>
-      <c r="M130" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>324</v>
       </c>
       <c r="B131" t="s">
         <v>5</v>
@@ -6062,39 +6056,39 @@
         <v>2</v>
       </c>
       <c r="G131" t="s">
+        <v>324</v>
+      </c>
+      <c r="H131" t="s">
+        <v>434</v>
+      </c>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="L131" s="2"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>325</v>
       </c>
-      <c r="H131" t="s">
-        <v>435</v>
-      </c>
-      <c r="K131" s="2"/>
-      <c r="L131" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="M131" s="2"/>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="E132" t="s">
+        <v>1</v>
+      </c>
+      <c r="F132" t="s">
+        <v>2</v>
+      </c>
+      <c r="H132" t="s">
+        <v>434</v>
+      </c>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="L132" s="2"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>326</v>
-      </c>
-      <c r="E132" t="s">
-        <v>1</v>
-      </c>
-      <c r="F132" t="s">
-        <v>2</v>
-      </c>
-      <c r="H132" t="s">
-        <v>435</v>
-      </c>
-      <c r="K132" s="2"/>
-      <c r="L132" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="M132" s="2"/>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>327</v>
       </c>
       <c r="B133" t="s">
         <v>52</v>
@@ -6112,20 +6106,20 @@
         <v>130</v>
       </c>
       <c r="G133" t="s">
+        <v>327</v>
+      </c>
+      <c r="H133" t="s">
+        <v>434</v>
+      </c>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="L133" s="2"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>328</v>
-      </c>
-      <c r="H133" t="s">
-        <v>435</v>
-      </c>
-      <c r="K133" s="2"/>
-      <c r="L133" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="M133" s="2"/>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>329</v>
       </c>
       <c r="B134" t="s">
         <v>39</v>
@@ -6137,26 +6131,26 @@
         <v>0.99</v>
       </c>
       <c r="E134" t="s">
+        <v>329</v>
+      </c>
+      <c r="F134" t="s">
         <v>330</v>
       </c>
-      <c r="F134" t="s">
+      <c r="G134" t="s">
         <v>331</v>
       </c>
-      <c r="G134" t="s">
+      <c r="H134" t="s">
+        <v>434</v>
+      </c>
+      <c r="J134" s="2"/>
+      <c r="K134" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="L134" s="2"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>332</v>
-      </c>
-      <c r="H134" t="s">
-        <v>435</v>
-      </c>
-      <c r="K134" s="2"/>
-      <c r="L134" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="M134" s="2"/>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>333</v>
       </c>
       <c r="B135" t="s">
         <v>39</v>
@@ -6168,26 +6162,26 @@
         <v>0.99</v>
       </c>
       <c r="E135" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F135" t="s">
         <v>42</v>
       </c>
       <c r="G135" t="s">
+        <v>334</v>
+      </c>
+      <c r="H135" t="s">
+        <v>434</v>
+      </c>
+      <c r="J135" s="2"/>
+      <c r="K135" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="L135" s="2"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
         <v>335</v>
-      </c>
-      <c r="H135" t="s">
-        <v>435</v>
-      </c>
-      <c r="K135" s="2"/>
-      <c r="L135" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="M135" s="2"/>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>336</v>
       </c>
       <c r="B136" t="s">
         <v>61</v>
@@ -6205,20 +6199,20 @@
         <v>2</v>
       </c>
       <c r="G136" t="s">
+        <v>336</v>
+      </c>
+      <c r="H136" t="s">
+        <v>434</v>
+      </c>
+      <c r="J136" s="2"/>
+      <c r="K136" s="2"/>
+      <c r="L136" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>337</v>
-      </c>
-      <c r="H136" t="s">
-        <v>435</v>
-      </c>
-      <c r="K136" s="2"/>
-      <c r="L136" s="2"/>
-      <c r="M136" s="2" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>338</v>
       </c>
       <c r="B137" t="s">
         <v>39</v>
@@ -6236,20 +6230,20 @@
         <v>2</v>
       </c>
       <c r="G137" t="s">
+        <v>338</v>
+      </c>
+      <c r="H137" t="s">
+        <v>434</v>
+      </c>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="L137" s="2"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>339</v>
-      </c>
-      <c r="H137" t="s">
-        <v>435</v>
-      </c>
-      <c r="K137" s="2"/>
-      <c r="L137" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="M137" s="2"/>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>340</v>
       </c>
       <c r="B138" t="s">
         <v>11</v>
@@ -6258,17 +6252,17 @@
         <v>0.99</v>
       </c>
       <c r="H138" t="s">
-        <v>435</v>
-      </c>
-      <c r="K138" s="2"/>
-      <c r="L138" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="M138" s="2"/>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="J138" s="2"/>
+      <c r="K138" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="L138" s="2"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B139" t="s">
         <v>5</v>
@@ -6286,20 +6280,20 @@
         <v>2</v>
       </c>
       <c r="G139" t="s">
+        <v>341</v>
+      </c>
+      <c r="H139" t="s">
+        <v>434</v>
+      </c>
+      <c r="J139" s="2"/>
+      <c r="K139" s="2"/>
+      <c r="L139" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>342</v>
-      </c>
-      <c r="H139" t="s">
-        <v>435</v>
-      </c>
-      <c r="K139" s="2"/>
-      <c r="L139" s="2"/>
-      <c r="M139" s="2" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>343</v>
       </c>
       <c r="B140" t="s">
         <v>11</v>
@@ -6308,17 +6302,17 @@
         <v>0.99</v>
       </c>
       <c r="H140" t="s">
-        <v>435</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="J140" s="2"/>
       <c r="K140" s="2"/>
-      <c r="L140" s="2"/>
-      <c r="M140" s="2" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L140" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B141" t="s">
         <v>39</v>
@@ -6330,26 +6324,26 @@
         <v>0.99</v>
       </c>
       <c r="E141" t="s">
+        <v>344</v>
+      </c>
+      <c r="F141" t="s">
+        <v>330</v>
+      </c>
+      <c r="G141" t="s">
         <v>345</v>
       </c>
-      <c r="F141" t="s">
-        <v>331</v>
-      </c>
-      <c r="G141" t="s">
+      <c r="H141" t="s">
+        <v>434</v>
+      </c>
+      <c r="J141" s="2"/>
+      <c r="K141" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="L141" s="2"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
         <v>346</v>
-      </c>
-      <c r="H141" t="s">
-        <v>435</v>
-      </c>
-      <c r="K141" s="2"/>
-      <c r="L141" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="M141" s="2"/>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>347</v>
       </c>
       <c r="B142" t="s">
         <v>61</v>
@@ -6370,17 +6364,17 @@
         <v>65</v>
       </c>
       <c r="H142" t="s">
-        <v>435</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="J142" s="2"/>
       <c r="K142" s="2"/>
-      <c r="L142" s="2"/>
-      <c r="M142" s="2" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L142" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B143" t="s">
         <v>13</v>
@@ -6392,26 +6386,26 @@
         <v>0.99</v>
       </c>
       <c r="E143" t="s">
+        <v>348</v>
+      </c>
+      <c r="F143" t="s">
         <v>349</v>
       </c>
-      <c r="F143" t="s">
+      <c r="G143" t="s">
         <v>350</v>
       </c>
-      <c r="G143" t="s">
+      <c r="I143" t="s">
+        <v>440</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="K143" s="2"/>
+      <c r="L143" s="2"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
         <v>351</v>
-      </c>
-      <c r="I143" t="s">
-        <v>441</v>
-      </c>
-      <c r="K143" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="L143" s="2"/>
-      <c r="M143" s="2"/>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>352</v>
       </c>
       <c r="B144" t="s">
         <v>39</v>
@@ -6423,26 +6417,26 @@
         <v>0.99</v>
       </c>
       <c r="E144" t="s">
+        <v>352</v>
+      </c>
+      <c r="F144" t="s">
+        <v>279</v>
+      </c>
+      <c r="G144" t="s">
         <v>353</v>
       </c>
-      <c r="F144" t="s">
-        <v>280</v>
-      </c>
-      <c r="G144" t="s">
+      <c r="H144" t="s">
+        <v>434</v>
+      </c>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="L144" s="2"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>354</v>
-      </c>
-      <c r="H144" t="s">
-        <v>435</v>
-      </c>
-      <c r="K144" s="2"/>
-      <c r="L144" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="M144" s="2"/>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>355</v>
       </c>
       <c r="B145" t="s">
         <v>39</v>
@@ -6454,26 +6448,26 @@
         <v>0.99</v>
       </c>
       <c r="E145" t="s">
+        <v>355</v>
+      </c>
+      <c r="F145" t="s">
+        <v>330</v>
+      </c>
+      <c r="G145" t="s">
         <v>356</v>
       </c>
-      <c r="F145" t="s">
-        <v>331</v>
-      </c>
-      <c r="G145" t="s">
+      <c r="H145" t="s">
+        <v>434</v>
+      </c>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="L145" s="2"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
         <v>357</v>
-      </c>
-      <c r="H145" t="s">
-        <v>435</v>
-      </c>
-      <c r="K145" s="2"/>
-      <c r="L145" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="M145" s="2"/>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>358</v>
       </c>
       <c r="B146" t="s">
         <v>39</v>
@@ -6485,26 +6479,26 @@
         <v>0.99</v>
       </c>
       <c r="E146" t="s">
+        <v>358</v>
+      </c>
+      <c r="F146" t="s">
         <v>359</v>
       </c>
-      <c r="F146" t="s">
+      <c r="G146" t="s">
         <v>360</v>
       </c>
-      <c r="G146" t="s">
+      <c r="H146" t="s">
+        <v>434</v>
+      </c>
+      <c r="J146" s="2"/>
+      <c r="K146" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="L146" s="2"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>361</v>
-      </c>
-      <c r="H146" t="s">
-        <v>435</v>
-      </c>
-      <c r="K146" s="2"/>
-      <c r="L146" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="M146" s="2"/>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>362</v>
       </c>
       <c r="B147" t="s">
         <v>39</v>
@@ -6516,26 +6510,26 @@
         <v>0.99</v>
       </c>
       <c r="E147" t="s">
+        <v>362</v>
+      </c>
+      <c r="F147" t="s">
+        <v>279</v>
+      </c>
+      <c r="G147" t="s">
         <v>363</v>
       </c>
-      <c r="F147" t="s">
-        <v>280</v>
-      </c>
-      <c r="G147" t="s">
+      <c r="H147" t="s">
+        <v>434</v>
+      </c>
+      <c r="J147" s="2"/>
+      <c r="K147" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="L147" s="2"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
         <v>364</v>
-      </c>
-      <c r="H147" t="s">
-        <v>435</v>
-      </c>
-      <c r="K147" s="2"/>
-      <c r="L147" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="M147" s="2"/>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>365</v>
       </c>
       <c r="B148" t="s">
         <v>39</v>
@@ -6547,26 +6541,26 @@
         <v>0.99</v>
       </c>
       <c r="E148" t="s">
+        <v>365</v>
+      </c>
+      <c r="F148" t="s">
+        <v>288</v>
+      </c>
+      <c r="G148" t="s">
         <v>366</v>
       </c>
-      <c r="F148" t="s">
-        <v>289</v>
-      </c>
-      <c r="G148" t="s">
+      <c r="H148" t="s">
+        <v>434</v>
+      </c>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="L148" s="2"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
         <v>367</v>
-      </c>
-      <c r="H148" t="s">
-        <v>435</v>
-      </c>
-      <c r="K148" s="2"/>
-      <c r="L148" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="M148" s="2"/>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>368</v>
       </c>
       <c r="B149" t="s">
         <v>61</v>
@@ -6584,20 +6578,20 @@
         <v>2</v>
       </c>
       <c r="G149" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H149" t="s">
-        <v>435</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="J149" s="2"/>
       <c r="K149" s="2"/>
-      <c r="L149" s="2"/>
-      <c r="M149" s="2" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L149" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B150" t="s">
         <v>61</v>
@@ -6615,20 +6609,20 @@
         <v>2</v>
       </c>
       <c r="G150" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H150" t="s">
-        <v>435</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="J150" s="2"/>
       <c r="K150" s="2"/>
-      <c r="L150" s="2"/>
-      <c r="M150" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L150" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B151" t="s">
         <v>61</v>
@@ -6646,20 +6640,20 @@
         <v>2</v>
       </c>
       <c r="G151" t="s">
+        <v>370</v>
+      </c>
+      <c r="H151" t="s">
+        <v>434</v>
+      </c>
+      <c r="J151" s="2"/>
+      <c r="K151" s="2"/>
+      <c r="L151" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
         <v>371</v>
-      </c>
-      <c r="H151" t="s">
-        <v>435</v>
-      </c>
-      <c r="K151" s="2"/>
-      <c r="L151" s="2"/>
-      <c r="M151" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>372</v>
       </c>
       <c r="B152" t="s">
         <v>61</v>
@@ -6677,20 +6671,20 @@
         <v>2</v>
       </c>
       <c r="G152" t="s">
+        <v>372</v>
+      </c>
+      <c r="H152" t="s">
+        <v>434</v>
+      </c>
+      <c r="J152" s="2"/>
+      <c r="K152" s="2"/>
+      <c r="L152" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>373</v>
-      </c>
-      <c r="H152" t="s">
-        <v>435</v>
-      </c>
-      <c r="K152" s="2"/>
-      <c r="L152" s="2"/>
-      <c r="M152" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>374</v>
       </c>
       <c r="B153" t="s">
         <v>11</v>
@@ -6699,17 +6693,17 @@
         <v>0.99</v>
       </c>
       <c r="H153" t="s">
-        <v>435</v>
-      </c>
-      <c r="K153" s="2"/>
-      <c r="L153" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="M153" s="2"/>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="J153" s="2"/>
+      <c r="K153" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="L153" s="2"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B154" t="s">
         <v>11</v>
@@ -6718,17 +6712,17 @@
         <v>0.99</v>
       </c>
       <c r="H154" t="s">
-        <v>435</v>
-      </c>
-      <c r="K154" s="2"/>
-      <c r="L154" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="M154" s="2"/>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="J154" s="2"/>
+      <c r="K154" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="L154" s="2"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B155" t="s">
         <v>11</v>
@@ -6737,17 +6731,17 @@
         <v>0.99</v>
       </c>
       <c r="H155" t="s">
-        <v>435</v>
-      </c>
-      <c r="K155" s="2"/>
-      <c r="L155" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="M155" s="2"/>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="J155" s="2"/>
+      <c r="K155" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="L155" s="2"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B156" t="s">
         <v>61</v>
@@ -6765,20 +6759,20 @@
         <v>2</v>
       </c>
       <c r="G156" t="s">
+        <v>377</v>
+      </c>
+      <c r="H156" t="s">
+        <v>434</v>
+      </c>
+      <c r="J156" s="2"/>
+      <c r="K156" s="2"/>
+      <c r="L156" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>378</v>
-      </c>
-      <c r="H156" t="s">
-        <v>435</v>
-      </c>
-      <c r="K156" s="2"/>
-      <c r="L156" s="2"/>
-      <c r="M156" s="2" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>379</v>
       </c>
       <c r="B157" t="s">
         <v>61</v>
@@ -6796,20 +6790,20 @@
         <v>2</v>
       </c>
       <c r="G157" t="s">
+        <v>379</v>
+      </c>
+      <c r="H157" t="s">
+        <v>434</v>
+      </c>
+      <c r="J157" s="2"/>
+      <c r="K157" s="2"/>
+      <c r="L157" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
         <v>380</v>
-      </c>
-      <c r="H157" t="s">
-        <v>435</v>
-      </c>
-      <c r="K157" s="2"/>
-      <c r="L157" s="2"/>
-      <c r="M157" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>381</v>
       </c>
       <c r="B158" t="s">
         <v>13</v>
@@ -6821,26 +6815,26 @@
         <v>0.99</v>
       </c>
       <c r="E158" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F158" t="s">
         <v>55</v>
       </c>
       <c r="G158" t="s">
+        <v>382</v>
+      </c>
+      <c r="H158" t="s">
+        <v>434</v>
+      </c>
+      <c r="J158" s="2"/>
+      <c r="K158" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="L158" s="2"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
         <v>383</v>
-      </c>
-      <c r="H158" t="s">
-        <v>435</v>
-      </c>
-      <c r="K158" s="2"/>
-      <c r="L158" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="M158" s="2"/>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>384</v>
       </c>
       <c r="B159" t="s">
         <v>13</v>
@@ -6852,26 +6846,26 @@
         <v>0.99</v>
       </c>
       <c r="E159" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F159" t="s">
         <v>130</v>
       </c>
       <c r="G159" t="s">
+        <v>385</v>
+      </c>
+      <c r="H159" t="s">
+        <v>434</v>
+      </c>
+      <c r="J159" s="2"/>
+      <c r="K159" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="L159" s="2"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>386</v>
-      </c>
-      <c r="H159" t="s">
-        <v>435</v>
-      </c>
-      <c r="K159" s="2"/>
-      <c r="L159" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="M159" s="2"/>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>387</v>
       </c>
       <c r="B160" t="s">
         <v>39</v>
@@ -6883,27 +6877,27 @@
         <v>0.99</v>
       </c>
       <c r="E160" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F160" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G160" t="s">
+        <v>387</v>
+      </c>
+      <c r="H160" t="s">
+        <v>434</v>
+      </c>
+      <c r="J160" s="2"/>
+      <c r="K160" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="L160" s="2"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>388</v>
       </c>
-      <c r="H160" t="s">
-        <v>435</v>
-      </c>
-      <c r="K160" s="2"/>
-      <c r="L160" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="M160" s="2"/>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>389</v>
-      </c>
       <c r="E161" t="s">
         <v>1</v>
       </c>
@@ -6911,15 +6905,15 @@
         <v>2</v>
       </c>
       <c r="H161" t="s">
-        <v>435</v>
-      </c>
-      <c r="K161" s="2"/>
-      <c r="L161" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="M161" s="2"/>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="J161" s="2"/>
+      <c r="K161" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="L161" s="2"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>71</v>
       </c>
@@ -6939,20 +6933,20 @@
         <v>2</v>
       </c>
       <c r="G162" t="s">
+        <v>389</v>
+      </c>
+      <c r="I162" t="s">
+        <v>436</v>
+      </c>
+      <c r="J162" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="K162" s="2"/>
+      <c r="L162" s="2"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
         <v>390</v>
-      </c>
-      <c r="I162" t="s">
-        <v>437</v>
-      </c>
-      <c r="K162" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="L162" s="2"/>
-      <c r="M162" s="2"/>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>391</v>
       </c>
       <c r="B163" t="s">
         <v>61</v>
@@ -6970,20 +6964,20 @@
         <v>2</v>
       </c>
       <c r="G163" t="s">
+        <v>391</v>
+      </c>
+      <c r="H163" t="s">
+        <v>434</v>
+      </c>
+      <c r="J163" s="2"/>
+      <c r="K163" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="L163" s="2"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
         <v>392</v>
-      </c>
-      <c r="H163" t="s">
-        <v>435</v>
-      </c>
-      <c r="K163" s="2"/>
-      <c r="L163" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="M163" s="2"/>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>393</v>
       </c>
       <c r="B164" t="s">
         <v>13</v>
@@ -6998,29 +6992,29 @@
         <v>63</v>
       </c>
       <c r="F164" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G164" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I164" t="s">
-        <v>434</v>
-      </c>
-      <c r="K164" s="2" t="s">
-        <v>497</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="J164" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="K164" s="2"/>
       <c r="L164" s="2"/>
-      <c r="M164" s="2"/>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>76</v>
       </c>
       <c r="B165" t="s">
+        <v>394</v>
+      </c>
+      <c r="C165" t="s">
         <v>395</v>
-      </c>
-      <c r="C165" t="s">
-        <v>396</v>
       </c>
       <c r="D165">
         <v>0.99</v>
@@ -7032,20 +7026,20 @@
         <v>2</v>
       </c>
       <c r="G165" t="s">
+        <v>396</v>
+      </c>
+      <c r="H165" t="s">
+        <v>434</v>
+      </c>
+      <c r="J165" s="2"/>
+      <c r="K165" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="L165" s="2"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
         <v>397</v>
-      </c>
-      <c r="H165" t="s">
-        <v>435</v>
-      </c>
-      <c r="K165" s="2"/>
-      <c r="L165" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="M165" s="2"/>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>398</v>
       </c>
       <c r="B166" t="s">
         <v>13</v>
@@ -7057,26 +7051,26 @@
         <v>0.99</v>
       </c>
       <c r="E166" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F166" t="s">
         <v>42</v>
       </c>
       <c r="G166" t="s">
+        <v>398</v>
+      </c>
+      <c r="I166" t="s">
+        <v>433</v>
+      </c>
+      <c r="J166" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="K166" s="2"/>
+      <c r="L166" s="2"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
         <v>399</v>
-      </c>
-      <c r="I166" t="s">
-        <v>434</v>
-      </c>
-      <c r="K166" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="L166" s="2"/>
-      <c r="M166" s="2"/>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>400</v>
       </c>
       <c r="B167" t="s">
         <v>13</v>
@@ -7088,26 +7082,26 @@
         <v>0.99</v>
       </c>
       <c r="E167" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F167" t="s">
         <v>130</v>
       </c>
       <c r="G167" t="s">
+        <v>400</v>
+      </c>
+      <c r="I167" t="s">
+        <v>433</v>
+      </c>
+      <c r="J167" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="K167" s="2"/>
+      <c r="L167" s="2"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
         <v>401</v>
-      </c>
-      <c r="I167" t="s">
-        <v>434</v>
-      </c>
-      <c r="K167" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="L167" s="2"/>
-      <c r="M167" s="2"/>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>402</v>
       </c>
       <c r="B168" t="s">
         <v>13</v>
@@ -7125,20 +7119,20 @@
         <v>55</v>
       </c>
       <c r="G168" t="s">
+        <v>402</v>
+      </c>
+      <c r="I168" t="s">
+        <v>433</v>
+      </c>
+      <c r="J168" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="K168" s="2"/>
+      <c r="L168" s="2"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
         <v>403</v>
-      </c>
-      <c r="I168" t="s">
-        <v>434</v>
-      </c>
-      <c r="K168" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="L168" s="2"/>
-      <c r="M168" s="2"/>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>404</v>
       </c>
       <c r="B169" t="s">
         <v>85</v>
@@ -7153,23 +7147,23 @@
         <v>98</v>
       </c>
       <c r="F169" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G169" t="s">
+        <v>404</v>
+      </c>
+      <c r="I169" t="s">
+        <v>435</v>
+      </c>
+      <c r="J169" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="K169" s="2"/>
+      <c r="L169" s="2"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
         <v>405</v>
-      </c>
-      <c r="I169" t="s">
-        <v>436</v>
-      </c>
-      <c r="K169" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="L169" s="2"/>
-      <c r="M169" s="2"/>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>406</v>
       </c>
       <c r="B170" t="s">
         <v>13</v>
@@ -7184,23 +7178,23 @@
         <v>63</v>
       </c>
       <c r="F170" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G170" t="s">
+        <v>406</v>
+      </c>
+      <c r="I170" t="s">
+        <v>433</v>
+      </c>
+      <c r="J170" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="K170" s="2"/>
+      <c r="L170" s="2"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
         <v>407</v>
-      </c>
-      <c r="I170" t="s">
-        <v>434</v>
-      </c>
-      <c r="K170" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="L170" s="2"/>
-      <c r="M170" s="2"/>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>408</v>
       </c>
       <c r="B171" t="s">
         <v>13</v>
@@ -7212,24 +7206,24 @@
         <v>0.99</v>
       </c>
       <c r="E171" t="s">
+        <v>408</v>
+      </c>
+      <c r="F171" t="s">
         <v>409</v>
       </c>
-      <c r="F171" t="s">
+      <c r="G171" t="s">
         <v>410</v>
       </c>
-      <c r="G171" t="s">
-        <v>411</v>
-      </c>
       <c r="I171" t="s">
-        <v>434</v>
-      </c>
-      <c r="K171" s="2" t="s">
-        <v>503</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="J171" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="K171" s="2"/>
       <c r="L171" s="2"/>
-      <c r="M171" s="2"/>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>209</v>
       </c>
@@ -7252,17 +7246,17 @@
         <v>210</v>
       </c>
       <c r="H172" t="s">
-        <v>435</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="J172" s="2"/>
       <c r="K172" s="2"/>
-      <c r="L172" s="2"/>
-      <c r="M172" s="2" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L172" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B173" t="s">
         <v>61</v>
@@ -7280,20 +7274,20 @@
         <v>2</v>
       </c>
       <c r="G173" t="s">
+        <v>412</v>
+      </c>
+      <c r="H173" t="s">
+        <v>434</v>
+      </c>
+      <c r="J173" s="2"/>
+      <c r="K173" s="2"/>
+      <c r="L173" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
         <v>413</v>
-      </c>
-      <c r="H173" t="s">
-        <v>435</v>
-      </c>
-      <c r="K173" s="2"/>
-      <c r="L173" s="2"/>
-      <c r="M173" s="2" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>414</v>
       </c>
       <c r="B174" t="s">
         <v>61</v>
@@ -7311,20 +7305,20 @@
         <v>2</v>
       </c>
       <c r="G174" t="s">
+        <v>414</v>
+      </c>
+      <c r="H174" t="s">
+        <v>434</v>
+      </c>
+      <c r="J174" s="2"/>
+      <c r="K174" s="2"/>
+      <c r="L174" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
         <v>415</v>
-      </c>
-      <c r="H174" t="s">
-        <v>435</v>
-      </c>
-      <c r="K174" s="2"/>
-      <c r="L174" s="2"/>
-      <c r="M174" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>416</v>
       </c>
       <c r="B175" t="s">
         <v>61</v>
@@ -7342,20 +7336,20 @@
         <v>2</v>
       </c>
       <c r="G175" t="s">
+        <v>416</v>
+      </c>
+      <c r="H175" t="s">
+        <v>434</v>
+      </c>
+      <c r="J175" s="2"/>
+      <c r="K175" s="2"/>
+      <c r="L175" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
         <v>417</v>
-      </c>
-      <c r="H175" t="s">
-        <v>435</v>
-      </c>
-      <c r="K175" s="2"/>
-      <c r="L175" s="2"/>
-      <c r="M175" s="2" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>418</v>
       </c>
       <c r="B176" t="s">
         <v>61</v>
@@ -7373,18 +7367,18 @@
         <v>2</v>
       </c>
       <c r="G176" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H176" t="s">
-        <v>435</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="J176" s="2"/>
       <c r="K176" s="2"/>
-      <c r="L176" s="2"/>
-      <c r="M176" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L176" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>224</v>
       </c>
@@ -7407,20 +7401,20 @@
         <v>225</v>
       </c>
       <c r="H177" t="s">
-        <v>435</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="J177" s="2"/>
       <c r="K177" s="2"/>
-      <c r="L177" s="2"/>
-      <c r="M177" s="2" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L177" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
+        <v>418</v>
+      </c>
+      <c r="B178" t="s">
         <v>419</v>
-      </c>
-      <c r="B178" t="s">
-        <v>420</v>
       </c>
       <c r="C178" t="s">
         <v>86</v>
@@ -7435,20 +7429,20 @@
         <v>46</v>
       </c>
       <c r="G178" t="s">
+        <v>420</v>
+      </c>
+      <c r="I178" t="s">
+        <v>435</v>
+      </c>
+      <c r="J178" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="K178" s="2"/>
+      <c r="L178" s="2"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
         <v>421</v>
-      </c>
-      <c r="I178" t="s">
-        <v>436</v>
-      </c>
-      <c r="K178" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="L178" s="2"/>
-      <c r="M178" s="2"/>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>422</v>
       </c>
       <c r="B179" t="s">
         <v>13</v>
@@ -7466,20 +7460,20 @@
         <v>64</v>
       </c>
       <c r="G179" t="s">
+        <v>422</v>
+      </c>
+      <c r="I179" t="s">
+        <v>433</v>
+      </c>
+      <c r="J179" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="K179" s="2"/>
+      <c r="L179" s="2"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
         <v>423</v>
-      </c>
-      <c r="I179" t="s">
-        <v>434</v>
-      </c>
-      <c r="K179" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="L179" s="2"/>
-      <c r="M179" s="2"/>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>424</v>
       </c>
       <c r="B180" t="s">
         <v>13</v>
@@ -7494,23 +7488,23 @@
         <v>218</v>
       </c>
       <c r="F180" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G180" t="s">
+        <v>424</v>
+      </c>
+      <c r="I180" t="s">
+        <v>433</v>
+      </c>
+      <c r="J180" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="K180" s="2"/>
+      <c r="L180" s="2"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
         <v>425</v>
-      </c>
-      <c r="I180" t="s">
-        <v>434</v>
-      </c>
-      <c r="K180" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="L180" s="2"/>
-      <c r="M180" s="2"/>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>426</v>
       </c>
       <c r="B181" t="s">
         <v>13</v>
@@ -7522,26 +7516,26 @@
         <v>0.99</v>
       </c>
       <c r="E181" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F181" t="s">
         <v>42</v>
       </c>
       <c r="G181" t="s">
+        <v>426</v>
+      </c>
+      <c r="I181" t="s">
+        <v>433</v>
+      </c>
+      <c r="J181" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="K181" s="2"/>
+      <c r="L181" s="2"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
         <v>427</v>
-      </c>
-      <c r="I181" t="s">
-        <v>434</v>
-      </c>
-      <c r="K181" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="L181" s="2"/>
-      <c r="M181" s="2"/>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>428</v>
       </c>
       <c r="B182" t="s">
         <v>13</v>
@@ -7559,20 +7553,20 @@
         <v>2</v>
       </c>
       <c r="G182" t="s">
+        <v>428</v>
+      </c>
+      <c r="I182" t="s">
+        <v>433</v>
+      </c>
+      <c r="J182" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="K182" s="2"/>
+      <c r="L182" s="2"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
         <v>429</v>
-      </c>
-      <c r="I182" t="s">
-        <v>434</v>
-      </c>
-      <c r="K182" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="L182" s="2"/>
-      <c r="M182" s="2"/>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>430</v>
       </c>
       <c r="B183" t="s">
         <v>13</v>
@@ -7590,76 +7584,86 @@
         <v>2</v>
       </c>
       <c r="G183" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I183" t="s">
-        <v>434</v>
-      </c>
-      <c r="K183" s="2" t="s">
-        <v>509</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="J183" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="K183" s="2"/>
       <c r="L183" s="2"/>
-      <c r="M183" s="2"/>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K184" s="2"/>
       <c r="L184" s="2"/>
-      <c r="M184" s="2"/>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K185" s="2"/>
       <c r="L185" s="2"/>
-      <c r="M185" s="2"/>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K186" s="2"/>
       <c r="L186" s="2"/>
-      <c r="M186" s="2"/>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K187" s="2"/>
       <c r="L187" s="2"/>
-      <c r="M187" s="2"/>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K188" s="2"/>
       <c r="L188" s="2"/>
-      <c r="M188" s="2"/>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K189" s="2"/>
       <c r="L189" s="2"/>
-      <c r="M189" s="2"/>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K190" s="2"/>
       <c r="L190" s="2"/>
-      <c r="M190" s="2"/>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K191" s="2"/>
       <c r="L191" s="2"/>
-      <c r="M191" s="2"/>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K192" s="2"/>
       <c r="L192" s="2"/>
-      <c r="M192" s="2"/>
-    </row>
-    <row r="193" spans="12:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K193" s="2"/>
       <c r="L193" s="2"/>
-      <c r="M193" s="2"/>
-    </row>
-    <row r="194" spans="12:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K194" s="2"/>
       <c r="L194" s="2"/>
-      <c r="M194" s="2"/>
-    </row>
-    <row r="195" spans="12:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K195" s="2"/>
       <c r="L195" s="2"/>
-      <c r="M195" s="2"/>
-    </row>
-    <row r="196" spans="12:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K196" s="2"/>
       <c r="L196" s="2"/>
-      <c r="M196" s="2"/>
-    </row>
-    <row r="197" spans="12:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K197" s="2"/>
       <c r="L197" s="2"/>
-      <c r="M197" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;L
+RC-Car
+&amp;C
+Bauteileigenschaften
+&amp;R
+</oddHeader>
+    <oddFooter>&amp;CHTBLuVA SBG&amp;R&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>